--- a/data/fractionation/test_fract_adjust/221207 Batch 132 Water Year Summary_no3642-3649.xlsx
+++ b/data/fractionation/test_fract_adjust/221207 Batch 132 Water Year Summary_no3642-3649.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\test_fract_adjust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F982577-BB8A-437E-8F89-55F1DB46B75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF515C1-96AC-472F-931E-BA8D775186B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -2795,7 +2795,7 @@
                   <c:v>7.3686310034335898E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1428687881390461</c:v>
+                  <c:v>4.4297861000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.19609992785331989</c:v>
@@ -10298,7 +10298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -10564,7 +10564,7 @@
       </c>
       <c r="H11" s="50">
         <f>Summary!V26</f>
-        <v>59.937528464417923</v>
+        <v>59.838957537278873</v>
       </c>
       <c r="I11" s="50">
         <v>37</v>
@@ -19399,8 +19399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
   <dimension ref="A1:AQ86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI32" sqref="AI32"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="12.45"/>
@@ -20350,7 +20350,7 @@
         <v>1.7594857490000013</v>
       </c>
       <c r="V7" s="71">
-        <v>0.1428687881390461</v>
+        <v>4.4297861000000001E-2</v>
       </c>
       <c r="W7" s="69" t="str">
         <f>'Tube I'!G5</f>
@@ -23347,7 +23347,7 @@
       </c>
       <c r="V26" s="79">
         <f>SUM(V5:V25)*40/'Tube Loading'!J36*100</f>
-        <v>59.937528464417923</v>
+        <v>59.838957537278873</v>
       </c>
       <c r="W26" s="87"/>
       <c r="X26" s="88" t="s">
@@ -23505,6 +23505,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AL2:AN2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="B2:D2"/>
@@ -23512,16 +23519,10 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AL2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
